--- a/input/medication_columns.xlsx
+++ b/input/medication_columns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rib4003/Projects/ad-rosmap-brains/git/ad-rosmap-brains/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jak2043/work/projects/active/ad-brain-landscape/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF461C73-297E-1D4C-82F3-71B439F8FDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B095D68A-3FAD-7246-B6E6-9D1DE3975FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13120" windowHeight="9880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,324 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="106">
   <si>
     <t>Class</t>
   </si>
   <si>
+    <t>diabetes_sr_rx_bl</t>
+  </si>
+  <si>
     <t>factor</t>
   </si>
   <si>
+    <t>diabetes_sr_rx_ever</t>
+  </si>
+  <si>
+    <t>analgesic_rx</t>
+  </si>
+  <si>
+    <t>antibiotic_rx</t>
+  </si>
+  <si>
+    <t>antihyp_all_rx</t>
+  </si>
+  <si>
+    <t>antineoplastic_rx</t>
+  </si>
+  <si>
+    <t>cardiac_rx</t>
+  </si>
+  <si>
+    <t>dental_rx</t>
+  </si>
+  <si>
+    <t>dermatologic_rx</t>
+  </si>
+  <si>
+    <t>endocrine_rx</t>
+  </si>
+  <si>
+    <t>gastrointestinal_rx</t>
+  </si>
+  <si>
+    <t>hemotologic_rx</t>
+  </si>
+  <si>
+    <t>lipid_lowering_rx</t>
+  </si>
+  <si>
+    <t>mental_health_rx</t>
+  </si>
+  <si>
+    <t>musculoskeletal_rx</t>
+  </si>
+  <si>
+    <t>neurologic_rx</t>
+  </si>
+  <si>
+    <t>ophthalmic_rx</t>
+  </si>
+  <si>
+    <t>otic_rx</t>
+  </si>
+  <si>
+    <t>plateletinhibitor_rx</t>
+  </si>
+  <si>
+    <t>respiratory_rx</t>
+  </si>
+  <si>
+    <t>supplement_rx</t>
+  </si>
+  <si>
+    <t>urinary_rx</t>
+  </si>
+  <si>
+    <t>acetaminophen_rx</t>
+  </si>
+  <si>
+    <t>anti_inflammatory_rx</t>
+  </si>
+  <si>
+    <t>antimalarial_rx</t>
+  </si>
+  <si>
+    <t>aspirin_rx</t>
+  </si>
+  <si>
+    <t>glucocortico_rx</t>
+  </si>
+  <si>
+    <t>opioid_rx</t>
+  </si>
+  <si>
+    <t>antiinfective_rx</t>
+  </si>
+  <si>
+    <t>vaccine_rx</t>
+  </si>
+  <si>
+    <t>aceinhibitor_rx</t>
+  </si>
+  <si>
+    <t>anteandr_cent_rx</t>
+  </si>
+  <si>
+    <t>anteandr_periph_rx</t>
+  </si>
+  <si>
+    <t>antiadrenergics_rx</t>
+  </si>
+  <si>
+    <t>antihyp_rx</t>
+  </si>
+  <si>
+    <t>beta_block_rx</t>
+  </si>
+  <si>
+    <t>calcium_channel_block_rx</t>
+  </si>
+  <si>
+    <t>direct_renin_inhibitor_rx</t>
+  </si>
+  <si>
+    <t>diuretic_plusbp_rx</t>
+  </si>
+  <si>
+    <t>diuretic_pure_rx</t>
+  </si>
+  <si>
+    <t>diuretic_rx</t>
+  </si>
+  <si>
+    <t>other_antihyp_rx</t>
+  </si>
+  <si>
+    <t>take_arbs_rx</t>
+  </si>
+  <si>
+    <t>antianginal_rx</t>
+  </si>
+  <si>
+    <t>antiarrhythmic_rx</t>
+  </si>
+  <si>
+    <t>cardiacglycoside_rx</t>
+  </si>
+  <si>
+    <t>antihormone_rx</t>
+  </si>
+  <si>
+    <t>diabetes_insulin_rx</t>
+  </si>
+  <si>
+    <t>diabetes_noninsulin_rx</t>
+  </si>
+  <si>
+    <t>diabetes_rx</t>
+  </si>
+  <si>
+    <t>estrogens_rx</t>
+  </si>
+  <si>
+    <t>spironolactone_rx</t>
+  </si>
+  <si>
+    <t>thyroid_replacement_rx</t>
+  </si>
+  <si>
+    <t>anorectal_rx</t>
+  </si>
+  <si>
+    <t>antacid_rx</t>
+  </si>
+  <si>
+    <t>antidiarrheal_rx</t>
+  </si>
+  <si>
+    <t>antinausea_rx</t>
+  </si>
+  <si>
+    <t>antireflux_rx</t>
+  </si>
+  <si>
+    <t>h2blocker_rx</t>
+  </si>
+  <si>
+    <t>laxative_rx</t>
+  </si>
+  <si>
+    <t>ppi_rx</t>
+  </si>
+  <si>
+    <t>anticoagulant_rx</t>
+  </si>
+  <si>
+    <t>hematopoietic_rx</t>
+  </si>
+  <si>
+    <t>lipid_lowering_nonstatin_rx</t>
+  </si>
+  <si>
+    <t>statin_rx</t>
+  </si>
+  <si>
+    <t>antianxiety_rx</t>
+  </si>
+  <si>
+    <t>antidepressant_tricyclic_rx</t>
+  </si>
+  <si>
+    <t>antimanic_rx</t>
+  </si>
+  <si>
+    <t>antipsychotic_rx</t>
+  </si>
+  <si>
+    <t>depression_rx</t>
+  </si>
+  <si>
+    <t>bisphosphonate_rx</t>
+  </si>
+  <si>
+    <t>calcitonin_rx</t>
+  </si>
+  <si>
+    <t>gout_rx</t>
+  </si>
+  <si>
+    <t>osteoporosis_rx</t>
+  </si>
+  <si>
+    <t>serm_rx</t>
+  </si>
+  <si>
+    <t>ad_rx</t>
+  </si>
+  <si>
+    <t>anticonvulsant_rx</t>
+  </si>
+  <si>
+    <t>park_rx</t>
+  </si>
+  <si>
+    <t>non_aspirin_rx</t>
+  </si>
+  <si>
+    <t>antiasthmatic_rx</t>
+  </si>
+  <si>
+    <t>antihistamine_rx</t>
+  </si>
+  <si>
+    <t>coughcoldallergy_rx</t>
+  </si>
+  <si>
+    <t>nasal_rx</t>
+  </si>
+  <si>
+    <t>alternative_rx</t>
+  </si>
+  <si>
+    <t>cartilage_base_rx</t>
+  </si>
+  <si>
+    <t>fish_oil_supplement_rx</t>
+  </si>
+  <si>
+    <t>glucosamine_rx</t>
+  </si>
+  <si>
+    <t>herbals_rx</t>
+  </si>
+  <si>
+    <t>macronutrient_rx</t>
+  </si>
+  <si>
+    <t>micronutrient_rx</t>
+  </si>
+  <si>
+    <t>mineral_rx</t>
+  </si>
+  <si>
+    <t>multivitamin_rx</t>
+  </si>
+  <si>
+    <t>nutrient_rx</t>
+  </si>
+  <si>
+    <t>other_dietary_rx</t>
+  </si>
+  <si>
+    <t>vitamin_minerals_rx</t>
+  </si>
+  <si>
+    <t>vitamin_rx</t>
+  </si>
+  <si>
+    <t>alphablocker_rx</t>
+  </si>
+  <si>
+    <t>benign_pros_hyper_rx</t>
+  </si>
+  <si>
+    <t>bphmed_rx</t>
+  </si>
+  <si>
+    <t>estrogen_vaginal_rx</t>
+  </si>
+  <si>
+    <t>fivehtblocker_rx</t>
+  </si>
+  <si>
+    <t>urinary_antispas_rx</t>
+  </si>
+  <si>
+    <t>urinary_inc_rx</t>
+  </si>
+  <si>
     <t>Column_Name</t>
-  </si>
-  <si>
-    <t>xyz_rx_never</t>
-  </si>
-  <si>
-    <t>abc_rx_always</t>
   </si>
 </sst>
 </file>
@@ -368,21 +671,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="29.83203125" customWidth="1"/>
-    <col min="2" max="2" width="29.1640625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -390,18 +689,826 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
